--- a/data/processed/post.xlsx
+++ b/data/processed/post.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O801"/>
+  <dimension ref="A1:O821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47768,6 +47768,1186 @@
         </is>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867316.html</t>
+        </is>
+      </c>
+      <c r="B802" s="4" t="inlineStr">
+        <is>
+          <t>2011款 普锐斯低价转让！</t>
+        </is>
+      </c>
+      <c r="C802" s="5" t="n">
+        <v>45723.38541666666</v>
+      </c>
+      <c r="D802" s="5" t="n">
+        <v>45723.37708333333</v>
+      </c>
+      <c r="E802" s="5" t="n">
+        <v>45723.37708333333</v>
+      </c>
+      <c r="F802" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G802" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H802" s="4" t="inlineStr">
+        <is>
+          <t>awdbbg</t>
+        </is>
+      </c>
+      <c r="I802" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2525347.html</t>
+        </is>
+      </c>
+      <c r="J802" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K802" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L802" s="5" t="n">
+        <v>45723.38541666666</v>
+      </c>
+      <c r="M802" s="5" t="n">
+        <v>45723.37708333333</v>
+      </c>
+      <c r="N802" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O802" s="4" t="inlineStr">
+        <is>
+          <t>0915</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867321.html</t>
+        </is>
+      </c>
+      <c r="B803" s="4" t="inlineStr">
+        <is>
+          <t>2001 LEXUS ES300 售价$4,995</t>
+        </is>
+      </c>
+      <c r="C803" s="5" t="n">
+        <v>45723.38541666666</v>
+      </c>
+      <c r="D803" s="5" t="n">
+        <v>45723.38263888889</v>
+      </c>
+      <c r="E803" s="5" t="n">
+        <v>45723.38263888889</v>
+      </c>
+      <c r="F803" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G803" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H803" s="4" t="inlineStr">
+        <is>
+          <t>AlKao</t>
+        </is>
+      </c>
+      <c r="I803" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2540928.html</t>
+        </is>
+      </c>
+      <c r="J803" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K803" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L803" s="5" t="n">
+        <v>45723.38541666666</v>
+      </c>
+      <c r="M803" s="5" t="n">
+        <v>45723.38263888889</v>
+      </c>
+      <c r="N803" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O803" s="4" t="inlineStr">
+        <is>
+          <t>0915</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867388.html</t>
+        </is>
+      </c>
+      <c r="B804" s="4" t="inlineStr">
+        <is>
+          <t>赛纳Sienna新款油电混合车回国要卖</t>
+        </is>
+      </c>
+      <c r="C804" s="5" t="n">
+        <v>45723.44791666666</v>
+      </c>
+      <c r="D804" s="5" t="n">
+        <v>45723.44166666667</v>
+      </c>
+      <c r="E804" s="5" t="n">
+        <v>45723.44166666667</v>
+      </c>
+      <c r="F804" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G804" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H804" s="4" t="inlineStr">
+        <is>
+          <t>876Ken₉蔡哥</t>
+        </is>
+      </c>
+      <c r="I804" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2369110.html</t>
+        </is>
+      </c>
+      <c r="J804" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K804" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L804" s="5" t="n">
+        <v>45723.44791666666</v>
+      </c>
+      <c r="M804" s="5" t="n">
+        <v>45723.44166666667</v>
+      </c>
+      <c r="N804" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O804" s="4" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867393.html</t>
+        </is>
+      </c>
+      <c r="B805" s="4" t="inlineStr">
+        <is>
+          <t>卖一台2018丰田卡罗拉,卖9500</t>
+        </is>
+      </c>
+      <c r="C805" s="5" t="n">
+        <v>45723.44791666666</v>
+      </c>
+      <c r="D805" s="5" t="n">
+        <v>45723.44583333333</v>
+      </c>
+      <c r="E805" s="5" t="n">
+        <v>45723.44583333333</v>
+      </c>
+      <c r="F805" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G805" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H805" s="4" t="inlineStr">
+        <is>
+          <t>卖馄饨的小阿姨</t>
+        </is>
+      </c>
+      <c r="I805" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2605472.html</t>
+        </is>
+      </c>
+      <c r="J805" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K805" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L805" s="5" t="n">
+        <v>45723.44791666666</v>
+      </c>
+      <c r="M805" s="5" t="n">
+        <v>45723.44583333333</v>
+      </c>
+      <c r="N805" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O805" s="4" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867397.html</t>
+        </is>
+      </c>
+      <c r="B806" s="4" t="inlineStr">
+        <is>
+          <t>几乎0*头款出21年普锐斯 prime 可享4000补贴</t>
+        </is>
+      </c>
+      <c r="C806" s="5" t="n">
+        <v>45723.44791666666</v>
+      </c>
+      <c r="D806" s="5" t="n">
+        <v>45723.44652777778</v>
+      </c>
+      <c r="E806" s="5" t="n">
+        <v>45723.44652777778</v>
+      </c>
+      <c r="F806" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G806" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H806" s="4" t="inlineStr">
+        <is>
+          <t>hahaha小鱼</t>
+        </is>
+      </c>
+      <c r="I806" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2581938.html</t>
+        </is>
+      </c>
+      <c r="J806" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K806" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L806" s="5" t="n">
+        <v>45723.44791666666</v>
+      </c>
+      <c r="M806" s="5" t="n">
+        <v>45723.44652777778</v>
+      </c>
+      <c r="N806" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O806" s="4" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867400.html</t>
+        </is>
+      </c>
+      <c r="B807" s="4" t="inlineStr">
+        <is>
+          <t>6000多2013年普锐斯还在等什么</t>
+        </is>
+      </c>
+      <c r="C807" s="5" t="n">
+        <v>45723.46875</v>
+      </c>
+      <c r="D807" s="5" t="n">
+        <v>45723.44930555556</v>
+      </c>
+      <c r="E807" s="5" t="n">
+        <v>45723.44930555556</v>
+      </c>
+      <c r="F807" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G807" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H807" s="4" t="inlineStr">
+        <is>
+          <t>利未</t>
+        </is>
+      </c>
+      <c r="I807" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2598472.html</t>
+        </is>
+      </c>
+      <c r="J807" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K807" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L807" s="5" t="n">
+        <v>45723.46875</v>
+      </c>
+      <c r="M807" s="5" t="n">
+        <v>45723.44930555556</v>
+      </c>
+      <c r="N807" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O807" s="4" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867419.html</t>
+        </is>
+      </c>
+      <c r="B808" s="4" t="inlineStr">
+        <is>
+          <t>出一台21年普锐斯 prime xle 可享受4000补贴 1字头</t>
+        </is>
+      </c>
+      <c r="C808" s="5" t="n">
+        <v>45723.46875</v>
+      </c>
+      <c r="D808" s="5" t="n">
+        <v>45723.4625</v>
+      </c>
+      <c r="E808" s="5" t="n">
+        <v>45723.4625</v>
+      </c>
+      <c r="F808" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G808" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H808" s="4" t="inlineStr">
+        <is>
+          <t>hahaha小鱼</t>
+        </is>
+      </c>
+      <c r="I808" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2581938.html</t>
+        </is>
+      </c>
+      <c r="J808" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K808" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L808" s="5" t="n">
+        <v>45723.46875</v>
+      </c>
+      <c r="M808" s="5" t="n">
+        <v>45723.4625</v>
+      </c>
+      <c r="N808" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O808" s="4" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867437.html</t>
+        </is>
+      </c>
+      <c r="B809" s="4" t="inlineStr">
+        <is>
+          <t>2015年奔驰C400 4MATIC 72000迈</t>
+        </is>
+      </c>
+      <c r="C809" s="5" t="n">
+        <v>45723.48958333334</v>
+      </c>
+      <c r="D809" s="5" t="n">
+        <v>45723.48194444444</v>
+      </c>
+      <c r="E809" s="5" t="n">
+        <v>45723.48194444444</v>
+      </c>
+      <c r="F809" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G809" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H809" s="4" t="inlineStr">
+        <is>
+          <t>dancao</t>
+        </is>
+      </c>
+      <c r="I809" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2468116.html</t>
+        </is>
+      </c>
+      <c r="J809" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K809" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L809" s="5" t="n">
+        <v>45723.48958333334</v>
+      </c>
+      <c r="M809" s="5" t="n">
+        <v>45723.48194444444</v>
+      </c>
+      <c r="N809" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O809" s="4" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867442.html</t>
+        </is>
+      </c>
+      <c r="B810" s="4" t="inlineStr">
+        <is>
+          <t>2014年GMC装修工具车转让</t>
+        </is>
+      </c>
+      <c r="C810" s="5" t="n">
+        <v>45723.48958333334</v>
+      </c>
+      <c r="D810" s="5" t="n">
+        <v>45723.4875</v>
+      </c>
+      <c r="E810" s="5" t="n">
+        <v>45723.4875</v>
+      </c>
+      <c r="F810" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G810" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H810" s="4" t="inlineStr">
+        <is>
+          <t>9861 Kimmy</t>
+        </is>
+      </c>
+      <c r="I810" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2486250.html</t>
+        </is>
+      </c>
+      <c r="J810" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K810" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L810" s="5" t="n">
+        <v>45723.48958333334</v>
+      </c>
+      <c r="M810" s="5" t="n">
+        <v>45723.4875</v>
+      </c>
+      <c r="N810" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O810" s="4" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867466.html</t>
+        </is>
+      </c>
+      <c r="B811" s="4" t="inlineStr">
+        <is>
+          <t>个人私家车 丰田高配SE混动凯美瑞 出售</t>
+        </is>
+      </c>
+      <c r="C811" s="5" t="n">
+        <v>45723.51041666666</v>
+      </c>
+      <c r="D811" s="5" t="n">
+        <v>45723.50902777778</v>
+      </c>
+      <c r="E811" s="5" t="n">
+        <v>45723.50902777778</v>
+      </c>
+      <c r="F811" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G811" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H811" s="4" t="inlineStr">
+        <is>
+          <t>艺之轩2</t>
+        </is>
+      </c>
+      <c r="I811" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2537741.html</t>
+        </is>
+      </c>
+      <c r="J811" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K811" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L811" s="5" t="n">
+        <v>45723.51041666666</v>
+      </c>
+      <c r="M811" s="5" t="n">
+        <v>45723.50902777778</v>
+      </c>
+      <c r="N811" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O811" s="4" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867602.html</t>
+        </is>
+      </c>
+      <c r="B812" s="4" t="inlineStr">
+        <is>
+          <t>低价出2021年丰田普锐斯</t>
+        </is>
+      </c>
+      <c r="C812" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="D812" s="5" t="n">
+        <v>45723.67847222222</v>
+      </c>
+      <c r="E812" s="5" t="n">
+        <v>45723.67847222222</v>
+      </c>
+      <c r="F812" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G812" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H812" s="4" t="inlineStr">
+        <is>
+          <t>8041小CCcccc</t>
+        </is>
+      </c>
+      <c r="I812" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2511069.html</t>
+        </is>
+      </c>
+      <c r="J812" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K812" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L812" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="M812" s="5" t="n">
+        <v>45723.67847222222</v>
+      </c>
+      <c r="N812" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O812" s="4" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867608.html</t>
+        </is>
+      </c>
+      <c r="B813" s="4" t="inlineStr">
+        <is>
+          <t>超低价出一台honda本田雅阁</t>
+        </is>
+      </c>
+      <c r="C813" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="D813" s="5" t="n">
+        <v>45723.68263888889</v>
+      </c>
+      <c r="E813" s="5" t="n">
+        <v>45723.68263888889</v>
+      </c>
+      <c r="F813" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G813" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H813" s="4" t="inlineStr">
+        <is>
+          <t>8041小CCcccc</t>
+        </is>
+      </c>
+      <c r="I813" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2511069.html</t>
+        </is>
+      </c>
+      <c r="J813" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K813" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L813" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="M813" s="5" t="n">
+        <v>45723.68263888889</v>
+      </c>
+      <c r="N813" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O813" s="4" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867611.html</t>
+        </is>
+      </c>
+      <c r="B814" s="4" t="inlineStr">
+        <is>
+          <t>万把块的本田奥德赛</t>
+        </is>
+      </c>
+      <c r="C814" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="D814" s="5" t="n">
+        <v>45723.68611111111</v>
+      </c>
+      <c r="E814" s="5" t="n">
+        <v>45723.68611111111</v>
+      </c>
+      <c r="F814" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G814" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H814" s="4" t="inlineStr">
+        <is>
+          <t>8041小CCcccc</t>
+        </is>
+      </c>
+      <c r="I814" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2511069.html</t>
+        </is>
+      </c>
+      <c r="J814" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K814" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L814" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="M814" s="5" t="n">
+        <v>45723.68611111111</v>
+      </c>
+      <c r="N814" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O814" s="4" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867613.html</t>
+        </is>
+      </c>
+      <c r="B815" s="4" t="inlineStr">
+        <is>
+          <t>2021年马自达3一万多出</t>
+        </is>
+      </c>
+      <c r="C815" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="D815" s="5" t="n">
+        <v>45723.68819444445</v>
+      </c>
+      <c r="E815" s="5" t="n">
+        <v>45723.68819444445</v>
+      </c>
+      <c r="F815" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G815" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H815" s="4" t="inlineStr">
+        <is>
+          <t>8041小CCcccc</t>
+        </is>
+      </c>
+      <c r="I815" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2511069.html</t>
+        </is>
+      </c>
+      <c r="J815" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K815" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L815" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="M815" s="5" t="n">
+        <v>45723.68819444445</v>
+      </c>
+      <c r="N815" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O815" s="4" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867616.html</t>
+        </is>
+      </c>
+      <c r="B816" s="4" t="inlineStr">
+        <is>
+          <t>雷克萨斯混动CT200</t>
+        </is>
+      </c>
+      <c r="C816" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="D816" s="5" t="n">
+        <v>45723.69097222222</v>
+      </c>
+      <c r="E816" s="5" t="n">
+        <v>45723.69097222222</v>
+      </c>
+      <c r="F816" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G816" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H816" s="4" t="inlineStr">
+        <is>
+          <t>8041小CCcccc</t>
+        </is>
+      </c>
+      <c r="I816" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2511069.html</t>
+        </is>
+      </c>
+      <c r="J816" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K816" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L816" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="M816" s="5" t="n">
+        <v>45723.69097222222</v>
+      </c>
+      <c r="N816" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O816" s="4" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867621.html</t>
+        </is>
+      </c>
+      <c r="B817" s="4" t="inlineStr">
+        <is>
+          <t>终身免费充电特斯拉MODEL X</t>
+        </is>
+      </c>
+      <c r="C817" s="5" t="n">
+        <v>45723.71875</v>
+      </c>
+      <c r="D817" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="E817" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="F817" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G817" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H817" s="4" t="inlineStr">
+        <is>
+          <t>8041小CCcccc</t>
+        </is>
+      </c>
+      <c r="I817" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2511069.html</t>
+        </is>
+      </c>
+      <c r="J817" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K817" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L817" s="5" t="n">
+        <v>45723.71875</v>
+      </c>
+      <c r="M817" s="5" t="n">
+        <v>45723.69791666666</v>
+      </c>
+      <c r="N817" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O817" s="4" t="inlineStr">
+        <is>
+          <t>1715</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867667.html</t>
+        </is>
+      </c>
+      <c r="B818" s="4" t="inlineStr">
+        <is>
+          <t>2016年很新的牛马神车普锐斯V</t>
+        </is>
+      </c>
+      <c r="C818" s="5" t="n">
+        <v>45723.80208333334</v>
+      </c>
+      <c r="D818" s="5" t="n">
+        <v>45723.78263888889</v>
+      </c>
+      <c r="E818" s="5" t="n">
+        <v>45723.78263888889</v>
+      </c>
+      <c r="F818" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G818" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H818" s="4" t="inlineStr">
+        <is>
+          <t>利未</t>
+        </is>
+      </c>
+      <c r="I818" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2598472.html</t>
+        </is>
+      </c>
+      <c r="J818" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K818" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L818" s="5" t="n">
+        <v>45723.80208333334</v>
+      </c>
+      <c r="M818" s="5" t="n">
+        <v>45723.78263888889</v>
+      </c>
+      <c r="N818" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O818" s="4" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867671.html</t>
+        </is>
+      </c>
+      <c r="B819" s="4" t="inlineStr">
+        <is>
+          <t>2019雷克萨斯nx300全网最低价</t>
+        </is>
+      </c>
+      <c r="C819" s="5" t="n">
+        <v>45723.80208333334</v>
+      </c>
+      <c r="D819" s="5" t="n">
+        <v>45723.78819444445</v>
+      </c>
+      <c r="E819" s="5" t="n">
+        <v>45723.78819444445</v>
+      </c>
+      <c r="F819" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G819" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H819" s="4" t="inlineStr">
+        <is>
+          <t>83114real</t>
+        </is>
+      </c>
+      <c r="I819" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_670458.html</t>
+        </is>
+      </c>
+      <c r="J819" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K819" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L819" s="5" t="n">
+        <v>45723.80208333334</v>
+      </c>
+      <c r="M819" s="5" t="n">
+        <v>45723.78819444445</v>
+      </c>
+      <c r="N819" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O819" s="4" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867719.html</t>
+        </is>
+      </c>
+      <c r="B820" s="4" t="inlineStr">
+        <is>
+          <t>出售2013普锐斯低里程</t>
+        </is>
+      </c>
+      <c r="C820" s="5" t="n">
+        <v>45723.86458333334</v>
+      </c>
+      <c r="D820" s="5" t="n">
+        <v>45723.84375</v>
+      </c>
+      <c r="E820" s="5" t="n">
+        <v>45723.84375</v>
+      </c>
+      <c r="F820" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G820" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H820" s="4" t="inlineStr">
+        <is>
+          <t>mj822928</t>
+        </is>
+      </c>
+      <c r="I820" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2381112.html</t>
+        </is>
+      </c>
+      <c r="J820" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K820" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L820" s="5" t="n">
+        <v>45723.86458333334</v>
+      </c>
+      <c r="M820" s="5" t="n">
+        <v>45723.84375</v>
+      </c>
+      <c r="N820" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O820" s="4" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/f/page_viewtopic/t_2867790.html</t>
+        </is>
+      </c>
+      <c r="B821" s="4" t="inlineStr">
+        <is>
+          <t>2018年天籁$5900</t>
+        </is>
+      </c>
+      <c r="C821" s="5" t="n">
+        <v>45723.98958333334</v>
+      </c>
+      <c r="D821" s="5" t="n">
+        <v>45723.98333333333</v>
+      </c>
+      <c r="E821" s="5" t="n">
+        <v>45723.98333333333</v>
+      </c>
+      <c r="F821" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G821" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H821" s="4" t="inlineStr">
+        <is>
+          <t>Liuliuqiu</t>
+        </is>
+      </c>
+      <c r="I821" s="4" t="inlineStr">
+        <is>
+          <t>https://www.chineseinla.com/user/id_2462902.html</t>
+        </is>
+      </c>
+      <c r="J821" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K821" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L821" s="5" t="n">
+        <v>45723.98958333334</v>
+      </c>
+      <c r="M821" s="5" t="n">
+        <v>45723.98333333333</v>
+      </c>
+      <c r="N821" s="4" t="inlineStr">
+        <is>
+          <t>bbs_post_list_20250307.xlsx</t>
+        </is>
+      </c>
+      <c r="O821" s="4" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
